--- a/MinimumResultsHydrologicScenarios.xlsx
+++ b/MinimumResultsHydrologicScenarios.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A9BAE9-864A-46D1-8B97-46BBBC46A23F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anabelle/Documents/GitHub/ImmersiveModelLakeMead/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6232E466-7448-1647-BDEC-47FC30232178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OverallMinimum" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -166,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,18 +250,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,6 +386,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2700E6-86BC-44F1-ACB6-2C664EE3E6A1}" name="Table1" displayName="Table1" ref="A1:I23" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:I23" xr:uid="{7F2700E6-86BC-44F1-ACB6-2C664EE3E6A1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I23">
+    <sortCondition ref="I1:I23"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0CB72BFB-E637-4FE0-8B65-CF606B348D30}" name="Ensemble" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A0D6599D-F4EA-49ED-A647-9FAF74226BB6}" name="# of Traces" dataDxfId="3"/>
@@ -725,20 +727,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -767,664 +769,664 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>14.1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
         <f>AVERAGE(F2:H2)</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>112</v>
       </c>
-      <c r="C3">
-        <v>16.5</v>
+      <c r="C3" s="1">
+        <v>11.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="G3">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I23" si="0">AVERAGE(F3:H3)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <f>AVERAGE(F3:H3)</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>14.1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>-1.3</v>
+      </c>
+      <c r="H4">
+        <v>5.4</v>
+      </c>
+      <c r="I4" s="5">
+        <f>AVERAGE(F4:H4)</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>14.1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>147</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>3.8</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>6.3</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
+      <c r="I5" s="5">
+        <f>AVERAGE(F5:H5)</f>
         <v>4.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>122</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C6">
-        <v>16.600000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F6">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H6">
         <v>5.5</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:H6)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
       <c r="C7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>5.5</v>
+      </c>
+      <c r="G7">
+        <v>5.5</v>
+      </c>
+      <c r="H7">
+        <v>5.5</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(F7:H7)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>3.8</v>
+      </c>
+      <c r="G8">
+        <v>6.6</v>
+      </c>
+      <c r="H8">
+        <v>6.1</v>
+      </c>
+      <c r="I8" s="5">
+        <f>AVERAGE(F8:H8)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>5.9</v>
+      </c>
+      <c r="G9">
+        <v>5.9</v>
+      </c>
+      <c r="H9">
+        <v>5.9</v>
+      </c>
+      <c r="I9" s="5">
+        <f>AVERAGE(F9:H9)</f>
+        <v>5.9000000000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G10">
+        <v>7.8</v>
+      </c>
+      <c r="H10">
+        <v>7.2</v>
+      </c>
+      <c r="I10" s="5">
+        <f>AVERAGE(F10:H10)</f>
+        <v>6.4666666666666659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11">
         <v>20.399999999999999</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>48</v>
-      </c>
-      <c r="F7">
-        <v>5.9</v>
-      </c>
-      <c r="G7">
-        <v>5.9</v>
-      </c>
-      <c r="H7">
-        <v>8.5</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>6.7666666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>5.6</v>
-      </c>
-      <c r="H8">
-        <v>8.1</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>8.2333333333333343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>26.1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1">
-        <v>97</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>26.1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>72</v>
-      </c>
-      <c r="F10">
-        <v>5.9</v>
-      </c>
-      <c r="G10">
-        <v>10.5</v>
-      </c>
-      <c r="H10">
-        <v>9.6</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>26.1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
       </c>
       <c r="F11">
         <v>5.9</v>
       </c>
       <c r="G11">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="H11">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <f>AVERAGE(F11:H11)</f>
+        <v>6.7666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>20.9</v>
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20.399999999999999</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>6.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G12">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>6.9666666666666659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <f>AVERAGE(F12:H12)</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
         <v>100</v>
       </c>
       <c r="C13" s="1">
-        <v>24.8</v>
+        <v>20.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G13">
         <v>5.9</v>
       </c>
       <c r="H13">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>8.2666666666666675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <f>AVERAGE(F13:H13)</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20.399999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>20.9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="F14">
-        <v>8.3000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="G14">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="H14">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <f>AVERAGE(F14:H14)</f>
+        <v>6.9666666666666659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>17.8</v>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>20.9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>430</v>
       </c>
       <c r="F15">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G15">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="H15">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>5.9000000000000012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <f>AVERAGE(F15:H15)</f>
+        <v>6.9666666666666659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1">
-        <v>20.5</v>
+        <v>21.7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>8.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G16">
-        <v>5.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H16">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <f>AVERAGE(F16:H16)</f>
+        <v>7.2333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>112</v>
       </c>
       <c r="C17" s="1">
-        <v>24.2</v>
+        <v>21.8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>9.6999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <f>AVERAGE(F17:H17)</f>
+        <v>7.2666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>112</v>
       </c>
       <c r="C18" s="1">
-        <v>21.7</v>
+        <v>24.2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>4.9000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="G18">
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5">
+        <f>AVERAGE(F18:H18)</f>
+        <v>8.0666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>5.6</v>
+      </c>
+      <c r="H19">
         <v>8.1</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>7.2333333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>112</v>
-      </c>
-      <c r="C19" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>81</v>
-      </c>
-      <c r="F19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G19">
-        <v>7.8</v>
-      </c>
-      <c r="H19">
-        <v>7.2</v>
-      </c>
       <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>6.4666666666666659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <f>AVERAGE(F19:H19)</f>
+        <v>8.2333333333333343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1">
-        <v>21.8</v>
+        <v>24.8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="G20">
-        <v>8.6999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="H20">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>7.2666666666666657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <f>AVERAGE(F20:H20)</f>
+        <v>8.2666666666666675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>81</v>
-      </c>
-      <c r="F21">
-        <v>3.8</v>
-      </c>
-      <c r="G21">
-        <v>6.6</v>
-      </c>
-      <c r="H21">
-        <v>6.1</v>
+        <v>26.1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.6</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <f>AVERAGE(F21:H21)</f>
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>112</v>
-      </c>
-      <c r="C22" s="1">
-        <v>11.6</v>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>26.1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F22">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="G22">
-        <v>4.7</v>
+        <v>10.5</v>
       </c>
       <c r="H22">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <f>AVERAGE(F22:H22)</f>
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="8">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="9">
-        <v>20.9</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23">
+        <v>26.1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="9">
-        <v>430</v>
-      </c>
-      <c r="F23" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="G23" s="9">
-        <v>8.4</v>
-      </c>
-      <c r="H23" s="9">
-        <v>6.1</v>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>5.9</v>
+      </c>
+      <c r="G23">
+        <v>10.5</v>
+      </c>
+      <c r="H23">
+        <v>9.6</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>6.9666666666666659</v>
+        <f>AVERAGE(F23:H23)</f>
+        <v>8.6666666666666661</v>
       </c>
     </row>
   </sheetData>
